--- a/excel_routes/route_DMM_ATZ_threats.xlsx
+++ b/excel_routes/route_DMM_ATZ_threats.xlsx
@@ -447,7 +447,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K15"/>
+  <dimension ref="A1:K12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -528,7 +528,7 @@
     <row r="2">
       <c r="A2" s="2" t="inlineStr">
         <is>
-          <t>19-JAN-26</t>
+          <t>26-JAN-26</t>
         </is>
       </c>
       <c r="B2" s="2" t="inlineStr">
@@ -538,26 +538,26 @@
       </c>
       <c r="C2" s="2" t="inlineStr">
         <is>
-          <t>flynas XY-854</t>
+          <t>Nile Air NP-232</t>
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>489</v>
+        <v>354</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>549</v>
+        <v>583</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>-60</v>
+        <v>-229</v>
       </c>
       <c r="G2" s="2" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="H2" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I2" s="2" t="n">
-        <v>-10</v>
+        <v>0</v>
       </c>
       <c r="J2" s="3" t="inlineStr">
         <is>
@@ -573,7 +573,7 @@
     <row r="3">
       <c r="A3" s="2" t="inlineStr">
         <is>
-          <t>23-JAN-26</t>
+          <t>26-JAN-26</t>
         </is>
       </c>
       <c r="B3" s="2" t="inlineStr">
@@ -583,17 +583,17 @@
       </c>
       <c r="C3" s="2" t="inlineStr">
         <is>
-          <t>Nile Air NP-232</t>
+          <t>Nesma Airlines NE-153</t>
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>354</v>
+        <v>371</v>
       </c>
       <c r="E3" s="2" t="n">
         <v>583</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>-229</v>
+        <v>-212</v>
       </c>
       <c r="G3" s="2" t="n">
         <v>30</v>
@@ -618,7 +618,7 @@
     <row r="4">
       <c r="A4" s="2" t="inlineStr">
         <is>
-          <t>23-JAN-26</t>
+          <t>26-JAN-26</t>
         </is>
       </c>
       <c r="B4" s="2" t="inlineStr">
@@ -628,26 +628,26 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>Nesma Airlines NE-153</t>
+          <t>flynas XY-894</t>
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>371</v>
+        <v>509</v>
       </c>
       <c r="E4" s="2" t="n">
         <v>583</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>-212</v>
+        <v>-74</v>
       </c>
       <c r="G4" s="2" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="H4" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I4" s="2" t="n">
-        <v>0</v>
+        <v>-10</v>
       </c>
       <c r="J4" s="3" t="inlineStr">
         <is>
@@ -663,7 +663,7 @@
     <row r="5">
       <c r="A5" s="2" t="inlineStr">
         <is>
-          <t>23-JAN-26</t>
+          <t>26-JAN-26</t>
         </is>
       </c>
       <c r="B5" s="2" t="inlineStr">
@@ -673,26 +673,26 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>Nesma Airlines NE-151</t>
+          <t>flynas XY-854</t>
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>371</v>
+        <v>509</v>
       </c>
       <c r="E5" s="2" t="n">
         <v>583</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>-212</v>
+        <v>-74</v>
       </c>
       <c r="G5" s="2" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="H5" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I5" s="2" t="n">
-        <v>0</v>
+        <v>-10</v>
       </c>
       <c r="J5" s="3" t="inlineStr">
         <is>
@@ -708,7 +708,7 @@
     <row r="6">
       <c r="A6" s="2" t="inlineStr">
         <is>
-          <t>23-JAN-26</t>
+          <t>30-JAN-26</t>
         </is>
       </c>
       <c r="B6" s="2" t="inlineStr">
@@ -718,26 +718,26 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>flynas XY-894</t>
+          <t>Nesma Airlines NE-151</t>
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>529</v>
+        <v>371</v>
       </c>
       <c r="E6" s="2" t="n">
         <v>583</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>-54</v>
+        <v>-212</v>
       </c>
       <c r="G6" s="2" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="H6" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I6" s="2" t="n">
-        <v>-10</v>
+        <v>0</v>
       </c>
       <c r="J6" s="3" t="inlineStr">
         <is>
@@ -753,7 +753,7 @@
     <row r="7">
       <c r="A7" s="2" t="inlineStr">
         <is>
-          <t>26-JAN-26</t>
+          <t>16-FEB-26</t>
         </is>
       </c>
       <c r="B7" s="2" t="inlineStr">
@@ -763,26 +763,26 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>Nile Air NP-232</t>
+          <t>flyadeal F3-911</t>
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>354</v>
+        <v>369</v>
       </c>
       <c r="E7" s="2" t="n">
-        <v>583</v>
+        <v>826</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>-229</v>
+        <v>-457</v>
       </c>
       <c r="G7" s="2" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="H7" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I7" s="2" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="J7" s="3" t="inlineStr">
         <is>
@@ -798,7 +798,7 @@
     <row r="8">
       <c r="A8" s="2" t="inlineStr">
         <is>
-          <t>26-JAN-26</t>
+          <t>16-FEB-26</t>
         </is>
       </c>
       <c r="B8" s="2" t="inlineStr">
@@ -808,17 +808,17 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>Nesma Airlines NE-153</t>
+          <t>Nile Air NP-232</t>
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>371</v>
+        <v>563</v>
       </c>
       <c r="E8" s="2" t="n">
-        <v>583</v>
+        <v>826</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>-212</v>
+        <v>-263</v>
       </c>
       <c r="G8" s="2" t="n">
         <v>30</v>
@@ -843,7 +843,7 @@
     <row r="9">
       <c r="A9" s="2" t="inlineStr">
         <is>
-          <t>02-FEB-26</t>
+          <t>16-FEB-26</t>
         </is>
       </c>
       <c r="B9" s="2" t="inlineStr">
@@ -853,26 +853,26 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>Nesma Airlines NE-153</t>
+          <t>flynas XY-894</t>
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>425</v>
+        <v>629</v>
       </c>
       <c r="E9" s="2" t="n">
-        <v>672</v>
+        <v>826</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>-247</v>
+        <v>-197</v>
       </c>
       <c r="G9" s="2" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="H9" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I9" s="2" t="n">
-        <v>0</v>
+        <v>-10</v>
       </c>
       <c r="J9" s="3" t="inlineStr">
         <is>
@@ -888,7 +888,7 @@
     <row r="10">
       <c r="A10" s="2" t="inlineStr">
         <is>
-          <t>02-FEB-26</t>
+          <t>16-FEB-26</t>
         </is>
       </c>
       <c r="B10" s="2" t="inlineStr">
@@ -898,17 +898,17 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>flynas XY-894</t>
+          <t>flynas XY-854</t>
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>599</v>
+        <v>629</v>
       </c>
       <c r="E10" s="2" t="n">
-        <v>672</v>
+        <v>826</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>-73</v>
+        <v>-197</v>
       </c>
       <c r="G10" s="2" t="n">
         <v>40</v>
@@ -933,7 +933,7 @@
     <row r="11">
       <c r="A11" s="2" t="inlineStr">
         <is>
-          <t>02-FEB-26</t>
+          <t>20-FEB-26</t>
         </is>
       </c>
       <c r="B11" s="2" t="inlineStr">
@@ -943,17 +943,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>flynas XY-854</t>
+          <t>flynas XY-894</t>
         </is>
       </c>
       <c r="D11" s="2" t="n">
         <v>599</v>
       </c>
       <c r="E11" s="2" t="n">
-        <v>672</v>
+        <v>686</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>-73</v>
+        <v>-87</v>
       </c>
       <c r="G11" s="2" t="n">
         <v>40</v>
@@ -978,7 +978,7 @@
     <row r="12">
       <c r="A12" s="2" t="inlineStr">
         <is>
-          <t>06-FEB-26</t>
+          <t>06-MAR-26</t>
         </is>
       </c>
       <c r="B12" s="2" t="inlineStr">
@@ -988,26 +988,26 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-684</t>
+          <t>flynas XY-894</t>
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>646</v>
+        <v>949</v>
       </c>
       <c r="E12" s="2" t="n">
-        <v>672</v>
+        <v>1026</v>
       </c>
       <c r="F12" s="2" t="n">
-        <v>-26</v>
+        <v>-77</v>
       </c>
       <c r="G12" s="2" t="n">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="H12" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I12" s="2" t="n">
-        <v>-16</v>
+        <v>-10</v>
       </c>
       <c r="J12" s="3" t="inlineStr">
         <is>
@@ -1015,141 +1015,6 @@
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
-        <is>
-          <t>SAR</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="2" t="inlineStr">
-        <is>
-          <t>16-FEB-26</t>
-        </is>
-      </c>
-      <c r="B13" s="2" t="inlineStr">
-        <is>
-          <t>SM-438</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t>flynas XY-894</t>
-        </is>
-      </c>
-      <c r="D13" s="2" t="n">
-        <v>629</v>
-      </c>
-      <c r="E13" s="2" t="n">
-        <v>741</v>
-      </c>
-      <c r="F13" s="2" t="n">
-        <v>-112</v>
-      </c>
-      <c r="G13" s="2" t="n">
-        <v>40</v>
-      </c>
-      <c r="H13" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="I13" s="2" t="n">
-        <v>-10</v>
-      </c>
-      <c r="J13" s="3" t="inlineStr">
-        <is>
-          <t>LOW THREAT</t>
-        </is>
-      </c>
-      <c r="K13" s="2" t="inlineStr">
-        <is>
-          <t>SAR</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="2" t="inlineStr">
-        <is>
-          <t>16-FEB-26</t>
-        </is>
-      </c>
-      <c r="B14" s="2" t="inlineStr">
-        <is>
-          <t>SM-438</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>flynas XY-854</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="n">
-        <v>629</v>
-      </c>
-      <c r="E14" s="2" t="n">
-        <v>741</v>
-      </c>
-      <c r="F14" s="2" t="n">
-        <v>-112</v>
-      </c>
-      <c r="G14" s="2" t="n">
-        <v>40</v>
-      </c>
-      <c r="H14" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="I14" s="2" t="n">
-        <v>-10</v>
-      </c>
-      <c r="J14" s="3" t="inlineStr">
-        <is>
-          <t>LOW THREAT</t>
-        </is>
-      </c>
-      <c r="K14" s="2" t="inlineStr">
-        <is>
-          <t>SAR</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="2" t="inlineStr">
-        <is>
-          <t>20-FEB-26</t>
-        </is>
-      </c>
-      <c r="B15" s="2" t="inlineStr">
-        <is>
-          <t>SM-438</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>flynas XY-894</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="n">
-        <v>599</v>
-      </c>
-      <c r="E15" s="2" t="n">
-        <v>686</v>
-      </c>
-      <c r="F15" s="2" t="n">
-        <v>-87</v>
-      </c>
-      <c r="G15" s="2" t="n">
-        <v>40</v>
-      </c>
-      <c r="H15" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="I15" s="2" t="n">
-        <v>-10</v>
-      </c>
-      <c r="J15" s="3" t="inlineStr">
-        <is>
-          <t>LOW THREAT</t>
-        </is>
-      </c>
-      <c r="K15" s="2" t="inlineStr">
         <is>
           <t>SAR</t>
         </is>

--- a/excel_routes/route_DMM_ATZ_threats.xlsx
+++ b/excel_routes/route_DMM_ATZ_threats.xlsx
@@ -447,7 +447,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K22"/>
+  <dimension ref="A1:K26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -528,7 +528,7 @@
     <row r="2">
       <c r="A2" s="2" t="inlineStr">
         <is>
-          <t>23-JAN-26</t>
+          <t>26-JAN-26</t>
         </is>
       </c>
       <c r="B2" s="2" t="inlineStr">
@@ -545,10 +545,10 @@
         <v>350</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>583</v>
+        <v>672</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>-233</v>
+        <v>-322</v>
       </c>
       <c r="G2" s="2" t="n">
         <v>30</v>
@@ -573,7 +573,7 @@
     <row r="3">
       <c r="A3" s="2" t="inlineStr">
         <is>
-          <t>23-JAN-26</t>
+          <t>26-JAN-26</t>
         </is>
       </c>
       <c r="B3" s="2" t="inlineStr">
@@ -583,17 +583,17 @@
       </c>
       <c r="C3" s="2" t="inlineStr">
         <is>
-          <t>Nesma Airlines NE-151</t>
+          <t>Nile Air NP-232</t>
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="E3" s="2" t="n">
-        <v>583</v>
+        <v>672</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>-233</v>
+        <v>-318</v>
       </c>
       <c r="G3" s="2" t="n">
         <v>30</v>
@@ -618,7 +618,7 @@
     <row r="4">
       <c r="A4" s="2" t="inlineStr">
         <is>
-          <t>23-JAN-26</t>
+          <t>26-JAN-26</t>
         </is>
       </c>
       <c r="B4" s="2" t="inlineStr">
@@ -628,17 +628,17 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>Nile Air NP-232</t>
+          <t>flyadeal F3-911</t>
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>354</v>
+        <v>447</v>
       </c>
       <c r="E4" s="2" t="n">
-        <v>583</v>
+        <v>672</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>-229</v>
+        <v>-225</v>
       </c>
       <c r="G4" s="2" t="n">
         <v>30</v>
@@ -663,7 +663,7 @@
     <row r="5">
       <c r="A5" s="2" t="inlineStr">
         <is>
-          <t>23-JAN-26</t>
+          <t>26-JAN-26</t>
         </is>
       </c>
       <c r="B5" s="2" t="inlineStr">
@@ -673,17 +673,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>flynas XY-894</t>
+          <t>flynas XY-854</t>
         </is>
       </c>
       <c r="D5" s="2" t="n">
         <v>529</v>
       </c>
       <c r="E5" s="2" t="n">
-        <v>583</v>
+        <v>672</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>-54</v>
+        <v>-143</v>
       </c>
       <c r="G5" s="2" t="n">
         <v>40</v>
@@ -718,26 +718,26 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>Nesma Airlines NE-153</t>
+          <t>flynas XY-894</t>
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>350</v>
+        <v>599</v>
       </c>
       <c r="E6" s="2" t="n">
-        <v>626</v>
+        <v>672</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>-276</v>
+        <v>-73</v>
       </c>
       <c r="G6" s="2" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="H6" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I6" s="2" t="n">
-        <v>0</v>
+        <v>-10</v>
       </c>
       <c r="J6" s="3" t="inlineStr">
         <is>
@@ -763,26 +763,26 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>Nile Air NP-232</t>
+          <t>EgyptAir MS-688</t>
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>354</v>
+        <v>656</v>
       </c>
       <c r="E7" s="2" t="n">
-        <v>626</v>
+        <v>672</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>-272</v>
+        <v>-16</v>
       </c>
       <c r="G7" s="2" t="n">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="H7" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I7" s="2" t="n">
-        <v>0</v>
+        <v>-16</v>
       </c>
       <c r="J7" s="3" t="inlineStr">
         <is>
@@ -798,7 +798,7 @@
     <row r="8">
       <c r="A8" s="2" t="inlineStr">
         <is>
-          <t>26-JAN-26</t>
+          <t>02-FEB-26</t>
         </is>
       </c>
       <c r="B8" s="2" t="inlineStr">
@@ -812,13 +812,13 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>509</v>
+        <v>599</v>
       </c>
       <c r="E8" s="2" t="n">
-        <v>626</v>
+        <v>745</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>-117</v>
+        <v>-146</v>
       </c>
       <c r="G8" s="2" t="n">
         <v>40</v>
@@ -843,7 +843,7 @@
     <row r="9">
       <c r="A9" s="2" t="inlineStr">
         <is>
-          <t>26-JAN-26</t>
+          <t>02-FEB-26</t>
         </is>
       </c>
       <c r="B9" s="2" t="inlineStr">
@@ -857,13 +857,13 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>509</v>
+        <v>599</v>
       </c>
       <c r="E9" s="2" t="n">
-        <v>626</v>
+        <v>745</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>-117</v>
+        <v>-146</v>
       </c>
       <c r="G9" s="2" t="n">
         <v>40</v>
@@ -888,7 +888,7 @@
     <row r="10">
       <c r="A10" s="2" t="inlineStr">
         <is>
-          <t>30-JAN-26</t>
+          <t>06-FEB-26</t>
         </is>
       </c>
       <c r="B10" s="2" t="inlineStr">
@@ -898,26 +898,26 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>Nesma Airlines NE-151</t>
+          <t>flynas XY-894</t>
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>410</v>
+        <v>709</v>
       </c>
       <c r="E10" s="2" t="n">
-        <v>626</v>
+        <v>830</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>-216</v>
+        <v>-121</v>
       </c>
       <c r="G10" s="2" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="H10" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I10" s="2" t="n">
-        <v>0</v>
+        <v>-10</v>
       </c>
       <c r="J10" s="3" t="inlineStr">
         <is>
@@ -933,7 +933,7 @@
     <row r="11">
       <c r="A11" s="2" t="inlineStr">
         <is>
-          <t>30-JAN-26</t>
+          <t>06-FEB-26</t>
         </is>
       </c>
       <c r="B11" s="2" t="inlineStr">
@@ -943,26 +943,26 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>Nile Air NP-232</t>
+          <t>EgyptAir MS-684</t>
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>418</v>
+        <v>856</v>
       </c>
       <c r="E11" s="2" t="n">
-        <v>626</v>
+        <v>830</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>-208</v>
+        <v>26</v>
       </c>
       <c r="G11" s="2" t="n">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="H11" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I11" s="2" t="n">
-        <v>0</v>
+        <v>-16</v>
       </c>
       <c r="J11" s="3" t="inlineStr">
         <is>
@@ -978,7 +978,7 @@
     <row r="12">
       <c r="A12" s="2" t="inlineStr">
         <is>
-          <t>02-FEB-26</t>
+          <t>09-FEB-26</t>
         </is>
       </c>
       <c r="B12" s="2" t="inlineStr">
@@ -988,26 +988,26 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>flynas XY-854</t>
+          <t>Nile Air NP-232</t>
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>599</v>
+        <v>563</v>
       </c>
       <c r="E12" s="2" t="n">
-        <v>745</v>
+        <v>830</v>
       </c>
       <c r="F12" s="2" t="n">
-        <v>-146</v>
+        <v>-267</v>
       </c>
       <c r="G12" s="2" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="H12" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I12" s="2" t="n">
-        <v>-10</v>
+        <v>0</v>
       </c>
       <c r="J12" s="3" t="inlineStr">
         <is>
@@ -1023,7 +1023,7 @@
     <row r="13">
       <c r="A13" s="2" t="inlineStr">
         <is>
-          <t>02-FEB-26</t>
+          <t>09-FEB-26</t>
         </is>
       </c>
       <c r="B13" s="2" t="inlineStr">
@@ -1033,26 +1033,26 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>flynas XY-894</t>
+          <t>flyadeal F3-911</t>
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>629</v>
+        <v>577</v>
       </c>
       <c r="E13" s="2" t="n">
-        <v>745</v>
+        <v>830</v>
       </c>
       <c r="F13" s="2" t="n">
-        <v>-116</v>
+        <v>-253</v>
       </c>
       <c r="G13" s="2" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="H13" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I13" s="2" t="n">
-        <v>-10</v>
+        <v>0</v>
       </c>
       <c r="J13" s="3" t="inlineStr">
         <is>
@@ -1068,7 +1068,7 @@
     <row r="14">
       <c r="A14" s="2" t="inlineStr">
         <is>
-          <t>06-FEB-26</t>
+          <t>09-FEB-26</t>
         </is>
       </c>
       <c r="B14" s="2" t="inlineStr">
@@ -1078,26 +1078,26 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-684</t>
+          <t>flynas XY-854</t>
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>766</v>
+        <v>599</v>
       </c>
       <c r="E14" s="2" t="n">
-        <v>745</v>
+        <v>830</v>
       </c>
       <c r="F14" s="2" t="n">
-        <v>21</v>
+        <v>-231</v>
       </c>
       <c r="G14" s="2" t="n">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="H14" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I14" s="2" t="n">
-        <v>-16</v>
+        <v>-10</v>
       </c>
       <c r="J14" s="3" t="inlineStr">
         <is>
@@ -1113,7 +1113,7 @@
     <row r="15">
       <c r="A15" s="2" t="inlineStr">
         <is>
-          <t>16-FEB-26</t>
+          <t>09-FEB-26</t>
         </is>
       </c>
       <c r="B15" s="2" t="inlineStr">
@@ -1123,26 +1123,26 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>flyadeal F3-911</t>
+          <t>flynas XY-894</t>
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>369</v>
+        <v>629</v>
       </c>
       <c r="E15" s="2" t="n">
-        <v>826</v>
+        <v>830</v>
       </c>
       <c r="F15" s="2" t="n">
-        <v>-457</v>
+        <v>-201</v>
       </c>
       <c r="G15" s="2" t="n">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="H15" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I15" s="2" t="n">
-        <v>15</v>
+        <v>-10</v>
       </c>
       <c r="J15" s="3" t="inlineStr">
         <is>
@@ -1158,7 +1158,7 @@
     <row r="16">
       <c r="A16" s="2" t="inlineStr">
         <is>
-          <t>16-FEB-26</t>
+          <t>13-FEB-26</t>
         </is>
       </c>
       <c r="B16" s="2" t="inlineStr">
@@ -1168,26 +1168,26 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>Nile Air NP-232</t>
+          <t>flynas XY-894</t>
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>563</v>
+        <v>669</v>
       </c>
       <c r="E16" s="2" t="n">
-        <v>826</v>
+        <v>830</v>
       </c>
       <c r="F16" s="2" t="n">
-        <v>-263</v>
+        <v>-161</v>
       </c>
       <c r="G16" s="2" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="H16" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I16" s="2" t="n">
-        <v>0</v>
+        <v>-10</v>
       </c>
       <c r="J16" s="3" t="inlineStr">
         <is>
@@ -1203,7 +1203,7 @@
     <row r="17">
       <c r="A17" s="2" t="inlineStr">
         <is>
-          <t>16-FEB-26</t>
+          <t>13-FEB-26</t>
         </is>
       </c>
       <c r="B17" s="2" t="inlineStr">
@@ -1213,26 +1213,26 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>flynas XY-894</t>
+          <t>EgyptAir MS-684</t>
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>629</v>
+        <v>848</v>
       </c>
       <c r="E17" s="2" t="n">
-        <v>826</v>
+        <v>830</v>
       </c>
       <c r="F17" s="2" t="n">
-        <v>-197</v>
+        <v>18</v>
       </c>
       <c r="G17" s="2" t="n">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="H17" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I17" s="2" t="n">
-        <v>-10</v>
+        <v>-16</v>
       </c>
       <c r="J17" s="3" t="inlineStr">
         <is>
@@ -1258,26 +1258,26 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>flynas XY-854</t>
+          <t>flyadeal F3-911</t>
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>629</v>
+        <v>547</v>
       </c>
       <c r="E18" s="2" t="n">
         <v>826</v>
       </c>
       <c r="F18" s="2" t="n">
-        <v>-197</v>
+        <v>-279</v>
       </c>
       <c r="G18" s="2" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="H18" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I18" s="2" t="n">
-        <v>-10</v>
+        <v>0</v>
       </c>
       <c r="J18" s="3" t="inlineStr">
         <is>
@@ -1293,7 +1293,7 @@
     <row r="19">
       <c r="A19" s="2" t="inlineStr">
         <is>
-          <t>20-FEB-26</t>
+          <t>16-FEB-26</t>
         </is>
       </c>
       <c r="B19" s="2" t="inlineStr">
@@ -1303,26 +1303,26 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>flynas XY-894</t>
+          <t>Nile Air NP-232</t>
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>629</v>
+        <v>563</v>
       </c>
       <c r="E19" s="2" t="n">
-        <v>686</v>
+        <v>826</v>
       </c>
       <c r="F19" s="2" t="n">
-        <v>-57</v>
+        <v>-263</v>
       </c>
       <c r="G19" s="2" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="H19" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I19" s="2" t="n">
-        <v>-10</v>
+        <v>0</v>
       </c>
       <c r="J19" s="3" t="inlineStr">
         <is>
@@ -1338,7 +1338,7 @@
     <row r="20">
       <c r="A20" s="2" t="inlineStr">
         <is>
-          <t>23-FEB-26</t>
+          <t>16-FEB-26</t>
         </is>
       </c>
       <c r="B20" s="2" t="inlineStr">
@@ -1352,13 +1352,13 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>569</v>
+        <v>599</v>
       </c>
       <c r="E20" s="2" t="n">
-        <v>686</v>
+        <v>826</v>
       </c>
       <c r="F20" s="2" t="n">
-        <v>-117</v>
+        <v>-227</v>
       </c>
       <c r="G20" s="2" t="n">
         <v>40</v>
@@ -1383,7 +1383,7 @@
     <row r="21">
       <c r="A21" s="2" t="inlineStr">
         <is>
-          <t>23-FEB-26</t>
+          <t>16-FEB-26</t>
         </is>
       </c>
       <c r="B21" s="2" t="inlineStr">
@@ -1397,13 +1397,13 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>569</v>
+        <v>599</v>
       </c>
       <c r="E21" s="2" t="n">
-        <v>686</v>
+        <v>826</v>
       </c>
       <c r="F21" s="2" t="n">
-        <v>-117</v>
+        <v>-227</v>
       </c>
       <c r="G21" s="2" t="n">
         <v>40</v>
@@ -1428,7 +1428,7 @@
     <row r="22">
       <c r="A22" s="2" t="inlineStr">
         <is>
-          <t>27-FEB-26</t>
+          <t>16-FEB-26</t>
         </is>
       </c>
       <c r="B22" s="2" t="inlineStr">
@@ -1442,13 +1442,13 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>646</v>
+        <v>776</v>
       </c>
       <c r="E22" s="2" t="n">
-        <v>636</v>
+        <v>826</v>
       </c>
       <c r="F22" s="2" t="n">
-        <v>10</v>
+        <v>-50</v>
       </c>
       <c r="G22" s="2" t="n">
         <v>46</v>
@@ -1465,6 +1465,186 @@
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>SAR</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="inlineStr">
+        <is>
+          <t>20-FEB-26</t>
+        </is>
+      </c>
+      <c r="B23" s="2" t="inlineStr">
+        <is>
+          <t>SM-438</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>flynas XY-894</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="n">
+        <v>569</v>
+      </c>
+      <c r="E23" s="2" t="n">
+        <v>686</v>
+      </c>
+      <c r="F23" s="2" t="n">
+        <v>-117</v>
+      </c>
+      <c r="G23" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="H23" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="I23" s="2" t="n">
+        <v>-10</v>
+      </c>
+      <c r="J23" s="3" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>SAR</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="inlineStr">
+        <is>
+          <t>23-FEB-26</t>
+        </is>
+      </c>
+      <c r="B24" s="2" t="inlineStr">
+        <is>
+          <t>SM-438</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>Nile Air NP-232</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="n">
+        <v>418</v>
+      </c>
+      <c r="E24" s="2" t="n">
+        <v>686</v>
+      </c>
+      <c r="F24" s="2" t="n">
+        <v>-268</v>
+      </c>
+      <c r="G24" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="H24" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="I24" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J24" s="3" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>SAR</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="inlineStr">
+        <is>
+          <t>23-FEB-26</t>
+        </is>
+      </c>
+      <c r="B25" s="2" t="inlineStr">
+        <is>
+          <t>SM-438</t>
+        </is>
+      </c>
+      <c r="C25" s="2" t="inlineStr">
+        <is>
+          <t>flynas XY-894</t>
+        </is>
+      </c>
+      <c r="D25" s="2" t="n">
+        <v>529</v>
+      </c>
+      <c r="E25" s="2" t="n">
+        <v>686</v>
+      </c>
+      <c r="F25" s="2" t="n">
+        <v>-157</v>
+      </c>
+      <c r="G25" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="H25" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="I25" s="2" t="n">
+        <v>-10</v>
+      </c>
+      <c r="J25" s="3" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
+        </is>
+      </c>
+      <c r="K25" s="2" t="inlineStr">
+        <is>
+          <t>SAR</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="inlineStr">
+        <is>
+          <t>23-FEB-26</t>
+        </is>
+      </c>
+      <c r="B26" s="2" t="inlineStr">
+        <is>
+          <t>SM-438</t>
+        </is>
+      </c>
+      <c r="C26" s="2" t="inlineStr">
+        <is>
+          <t>flynas XY-854</t>
+        </is>
+      </c>
+      <c r="D26" s="2" t="n">
+        <v>529</v>
+      </c>
+      <c r="E26" s="2" t="n">
+        <v>686</v>
+      </c>
+      <c r="F26" s="2" t="n">
+        <v>-157</v>
+      </c>
+      <c r="G26" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="H26" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="I26" s="2" t="n">
+        <v>-10</v>
+      </c>
+      <c r="J26" s="3" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
+        </is>
+      </c>
+      <c r="K26" s="2" t="inlineStr">
         <is>
           <t>SAR</t>
         </is>

--- a/excel_routes/route_DMM_ATZ_threats.xlsx
+++ b/excel_routes/route_DMM_ATZ_threats.xlsx
@@ -33,7 +33,7 @@
       <b val="1"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill/>
     </fill>
@@ -44,6 +44,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="003498DB"/>
         <bgColor rgb="003498DB"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FFF3CD"/>
+        <bgColor rgb="00FFF3CD"/>
       </patternFill>
     </fill>
     <fill>
@@ -71,7 +77,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -80,6 +86,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -447,7 +456,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K26"/>
+  <dimension ref="A1:K21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -464,7 +473,7 @@
     <col width="13" customWidth="1" min="7" max="7"/>
     <col width="13" customWidth="1" min="8" max="8"/>
     <col width="19" customWidth="1" min="9" max="9"/>
-    <col width="12" customWidth="1" min="10" max="10"/>
+    <col width="25" customWidth="1" min="10" max="10"/>
     <col width="10" customWidth="1" min="11" max="11"/>
   </cols>
   <sheetData>
@@ -528,7 +537,7 @@
     <row r="2">
       <c r="A2" s="2" t="inlineStr">
         <is>
-          <t>26-JAN-26</t>
+          <t>02-FEB-26</t>
         </is>
       </c>
       <c r="B2" s="2" t="inlineStr">
@@ -538,17 +547,17 @@
       </c>
       <c r="C2" s="2" t="inlineStr">
         <is>
-          <t>Nesma Airlines NE-153</t>
+          <t>Nile Air NP-232</t>
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>350</v>
+        <v>418</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>672</v>
+        <v>915</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>-322</v>
+        <v>-497</v>
       </c>
       <c r="G2" s="2" t="n">
         <v>30</v>
@@ -561,7 +570,7 @@
       </c>
       <c r="J2" s="3" t="inlineStr">
         <is>
-          <t>LOW THREAT</t>
+          <t>MEDIUM THREAT - MONITOR</t>
         </is>
       </c>
       <c r="K2" s="2" t="inlineStr">
@@ -573,7 +582,7 @@
     <row r="3">
       <c r="A3" s="2" t="inlineStr">
         <is>
-          <t>26-JAN-26</t>
+          <t>02-FEB-26</t>
         </is>
       </c>
       <c r="B3" s="2" t="inlineStr">
@@ -583,28 +592,28 @@
       </c>
       <c r="C3" s="2" t="inlineStr">
         <is>
-          <t>Nile Air NP-232</t>
+          <t>EgyptAir MS-684</t>
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>354</v>
+        <v>944</v>
       </c>
       <c r="E3" s="2" t="n">
-        <v>672</v>
+        <v>915</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>-318</v>
+        <v>29</v>
       </c>
       <c r="G3" s="2" t="n">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="H3" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I3" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" s="3" t="inlineStr">
+        <v>-16</v>
+      </c>
+      <c r="J3" s="4" t="inlineStr">
         <is>
           <t>LOW THREAT</t>
         </is>
@@ -618,7 +627,7 @@
     <row r="4">
       <c r="A4" s="2" t="inlineStr">
         <is>
-          <t>26-JAN-26</t>
+          <t>06-FEB-26</t>
         </is>
       </c>
       <c r="B4" s="2" t="inlineStr">
@@ -628,28 +637,28 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>flyadeal F3-911</t>
+          <t>flynas XY-894</t>
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>447</v>
+        <v>849</v>
       </c>
       <c r="E4" s="2" t="n">
-        <v>672</v>
+        <v>915</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>-225</v>
+        <v>-66</v>
       </c>
       <c r="G4" s="2" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="H4" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" s="3" t="inlineStr">
+        <v>-10</v>
+      </c>
+      <c r="J4" s="4" t="inlineStr">
         <is>
           <t>LOW THREAT</t>
         </is>
@@ -663,7 +672,7 @@
     <row r="5">
       <c r="A5" s="2" t="inlineStr">
         <is>
-          <t>26-JAN-26</t>
+          <t>13-FEB-26</t>
         </is>
       </c>
       <c r="B5" s="2" t="inlineStr">
@@ -673,17 +682,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>flynas XY-854</t>
+          <t>flynas XY-894</t>
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>529</v>
+        <v>669</v>
       </c>
       <c r="E5" s="2" t="n">
-        <v>672</v>
+        <v>915</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>-143</v>
+        <v>-246</v>
       </c>
       <c r="G5" s="2" t="n">
         <v>40</v>
@@ -694,7 +703,7 @@
       <c r="I5" s="2" t="n">
         <v>-10</v>
       </c>
-      <c r="J5" s="3" t="inlineStr">
+      <c r="J5" s="4" t="inlineStr">
         <is>
           <t>LOW THREAT</t>
         </is>
@@ -708,7 +717,7 @@
     <row r="6">
       <c r="A6" s="2" t="inlineStr">
         <is>
-          <t>26-JAN-26</t>
+          <t>13-FEB-26</t>
         </is>
       </c>
       <c r="B6" s="2" t="inlineStr">
@@ -718,28 +727,28 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>flynas XY-894</t>
+          <t>Nile Air NP-232</t>
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>599</v>
+        <v>679</v>
       </c>
       <c r="E6" s="2" t="n">
-        <v>672</v>
+        <v>915</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>-73</v>
+        <v>-236</v>
       </c>
       <c r="G6" s="2" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="H6" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I6" s="2" t="n">
-        <v>-10</v>
-      </c>
-      <c r="J6" s="3" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="J6" s="4" t="inlineStr">
         <is>
           <t>LOW THREAT</t>
         </is>
@@ -753,7 +762,7 @@
     <row r="7">
       <c r="A7" s="2" t="inlineStr">
         <is>
-          <t>26-JAN-26</t>
+          <t>13-FEB-26</t>
         </is>
       </c>
       <c r="B7" s="2" t="inlineStr">
@@ -763,17 +772,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-688</t>
+          <t>EgyptAir MS-684</t>
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>656</v>
+        <v>784</v>
       </c>
       <c r="E7" s="2" t="n">
-        <v>672</v>
+        <v>915</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>-16</v>
+        <v>-131</v>
       </c>
       <c r="G7" s="2" t="n">
         <v>46</v>
@@ -784,7 +793,7 @@
       <c r="I7" s="2" t="n">
         <v>-16</v>
       </c>
-      <c r="J7" s="3" t="inlineStr">
+      <c r="J7" s="4" t="inlineStr">
         <is>
           <t>LOW THREAT</t>
         </is>
@@ -798,7 +807,7 @@
     <row r="8">
       <c r="A8" s="2" t="inlineStr">
         <is>
-          <t>02-FEB-26</t>
+          <t>16-FEB-26</t>
         </is>
       </c>
       <c r="B8" s="2" t="inlineStr">
@@ -808,28 +817,28 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>flynas XY-894</t>
+          <t>Nile Air NP-232</t>
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>599</v>
+        <v>563</v>
       </c>
       <c r="E8" s="2" t="n">
-        <v>745</v>
+        <v>826</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>-146</v>
+        <v>-263</v>
       </c>
       <c r="G8" s="2" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="H8" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I8" s="2" t="n">
-        <v>-10</v>
-      </c>
-      <c r="J8" s="3" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="J8" s="4" t="inlineStr">
         <is>
           <t>LOW THREAT</t>
         </is>
@@ -843,7 +852,7 @@
     <row r="9">
       <c r="A9" s="2" t="inlineStr">
         <is>
-          <t>02-FEB-26</t>
+          <t>16-FEB-26</t>
         </is>
       </c>
       <c r="B9" s="2" t="inlineStr">
@@ -853,28 +862,28 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>flynas XY-854</t>
+          <t>flyadeal F3-911</t>
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>599</v>
+        <v>607</v>
       </c>
       <c r="E9" s="2" t="n">
-        <v>745</v>
+        <v>826</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>-146</v>
+        <v>-219</v>
       </c>
       <c r="G9" s="2" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="H9" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I9" s="2" t="n">
-        <v>-10</v>
-      </c>
-      <c r="J9" s="3" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="J9" s="4" t="inlineStr">
         <is>
           <t>LOW THREAT</t>
         </is>
@@ -888,7 +897,7 @@
     <row r="10">
       <c r="A10" s="2" t="inlineStr">
         <is>
-          <t>06-FEB-26</t>
+          <t>16-FEB-26</t>
         </is>
       </c>
       <c r="B10" s="2" t="inlineStr">
@@ -898,30 +907,30 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>flynas XY-894</t>
+          <t>EgyptAir MS-688</t>
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>709</v>
+        <v>656</v>
       </c>
       <c r="E10" s="2" t="n">
-        <v>830</v>
+        <v>826</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>-121</v>
+        <v>-170</v>
       </c>
       <c r="G10" s="2" t="n">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="H10" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I10" s="2" t="n">
-        <v>-10</v>
+        <v>-16</v>
       </c>
       <c r="J10" s="3" t="inlineStr">
         <is>
-          <t>LOW THREAT</t>
+          <t>MEDIUM THREAT - MONITOR</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
@@ -933,7 +942,7 @@
     <row r="11">
       <c r="A11" s="2" t="inlineStr">
         <is>
-          <t>06-FEB-26</t>
+          <t>16-FEB-26</t>
         </is>
       </c>
       <c r="B11" s="2" t="inlineStr">
@@ -943,28 +952,28 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-684</t>
+          <t>flynas XY-854</t>
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>856</v>
+        <v>669</v>
       </c>
       <c r="E11" s="2" t="n">
-        <v>830</v>
+        <v>826</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>26</v>
+        <v>-157</v>
       </c>
       <c r="G11" s="2" t="n">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="H11" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I11" s="2" t="n">
-        <v>-16</v>
-      </c>
-      <c r="J11" s="3" t="inlineStr">
+        <v>-10</v>
+      </c>
+      <c r="J11" s="4" t="inlineStr">
         <is>
           <t>LOW THREAT</t>
         </is>
@@ -978,7 +987,7 @@
     <row r="12">
       <c r="A12" s="2" t="inlineStr">
         <is>
-          <t>09-FEB-26</t>
+          <t>16-FEB-26</t>
         </is>
       </c>
       <c r="B12" s="2" t="inlineStr">
@@ -988,28 +997,28 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>Nile Air NP-232</t>
+          <t>flynas XY-894</t>
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>563</v>
+        <v>709</v>
       </c>
       <c r="E12" s="2" t="n">
-        <v>830</v>
+        <v>826</v>
       </c>
       <c r="F12" s="2" t="n">
-        <v>-267</v>
+        <v>-117</v>
       </c>
       <c r="G12" s="2" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="H12" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I12" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J12" s="3" t="inlineStr">
+        <v>-10</v>
+      </c>
+      <c r="J12" s="4" t="inlineStr">
         <is>
           <t>LOW THREAT</t>
         </is>
@@ -1023,7 +1032,7 @@
     <row r="13">
       <c r="A13" s="2" t="inlineStr">
         <is>
-          <t>09-FEB-26</t>
+          <t>20-FEB-26</t>
         </is>
       </c>
       <c r="B13" s="2" t="inlineStr">
@@ -1037,13 +1046,13 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>577</v>
+        <v>477</v>
       </c>
       <c r="E13" s="2" t="n">
-        <v>830</v>
+        <v>686</v>
       </c>
       <c r="F13" s="2" t="n">
-        <v>-253</v>
+        <v>-209</v>
       </c>
       <c r="G13" s="2" t="n">
         <v>30</v>
@@ -1054,7 +1063,7 @@
       <c r="I13" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="J13" s="3" t="inlineStr">
+      <c r="J13" s="4" t="inlineStr">
         <is>
           <t>LOW THREAT</t>
         </is>
@@ -1068,7 +1077,7 @@
     <row r="14">
       <c r="A14" s="2" t="inlineStr">
         <is>
-          <t>09-FEB-26</t>
+          <t>20-FEB-26</t>
         </is>
       </c>
       <c r="B14" s="2" t="inlineStr">
@@ -1078,17 +1087,17 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>flynas XY-854</t>
+          <t>flynas XY-894</t>
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>599</v>
+        <v>629</v>
       </c>
       <c r="E14" s="2" t="n">
-        <v>830</v>
+        <v>686</v>
       </c>
       <c r="F14" s="2" t="n">
-        <v>-231</v>
+        <v>-57</v>
       </c>
       <c r="G14" s="2" t="n">
         <v>40</v>
@@ -1099,7 +1108,7 @@
       <c r="I14" s="2" t="n">
         <v>-10</v>
       </c>
-      <c r="J14" s="3" t="inlineStr">
+      <c r="J14" s="4" t="inlineStr">
         <is>
           <t>LOW THREAT</t>
         </is>
@@ -1113,7 +1122,7 @@
     <row r="15">
       <c r="A15" s="2" t="inlineStr">
         <is>
-          <t>09-FEB-26</t>
+          <t>20-FEB-26</t>
         </is>
       </c>
       <c r="B15" s="2" t="inlineStr">
@@ -1123,28 +1132,28 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>flynas XY-894</t>
+          <t>EgyptAir MS-688</t>
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>629</v>
+        <v>656</v>
       </c>
       <c r="E15" s="2" t="n">
-        <v>830</v>
+        <v>686</v>
       </c>
       <c r="F15" s="2" t="n">
-        <v>-201</v>
+        <v>-30</v>
       </c>
       <c r="G15" s="2" t="n">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="H15" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I15" s="2" t="n">
-        <v>-10</v>
-      </c>
-      <c r="J15" s="3" t="inlineStr">
+        <v>-16</v>
+      </c>
+      <c r="J15" s="4" t="inlineStr">
         <is>
           <t>LOW THREAT</t>
         </is>
@@ -1158,7 +1167,7 @@
     <row r="16">
       <c r="A16" s="2" t="inlineStr">
         <is>
-          <t>13-FEB-26</t>
+          <t>23-FEB-26</t>
         </is>
       </c>
       <c r="B16" s="2" t="inlineStr">
@@ -1168,28 +1177,28 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>flynas XY-894</t>
+          <t>Nile Air NP-232</t>
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>669</v>
+        <v>418</v>
       </c>
       <c r="E16" s="2" t="n">
-        <v>830</v>
+        <v>686</v>
       </c>
       <c r="F16" s="2" t="n">
-        <v>-161</v>
+        <v>-268</v>
       </c>
       <c r="G16" s="2" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="H16" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I16" s="2" t="n">
-        <v>-10</v>
-      </c>
-      <c r="J16" s="3" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="J16" s="4" t="inlineStr">
         <is>
           <t>LOW THREAT</t>
         </is>
@@ -1203,7 +1212,7 @@
     <row r="17">
       <c r="A17" s="2" t="inlineStr">
         <is>
-          <t>13-FEB-26</t>
+          <t>23-FEB-26</t>
         </is>
       </c>
       <c r="B17" s="2" t="inlineStr">
@@ -1213,28 +1222,28 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-684</t>
+          <t>flynas XY-854</t>
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>848</v>
+        <v>519</v>
       </c>
       <c r="E17" s="2" t="n">
-        <v>830</v>
+        <v>686</v>
       </c>
       <c r="F17" s="2" t="n">
-        <v>18</v>
+        <v>-167</v>
       </c>
       <c r="G17" s="2" t="n">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="H17" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I17" s="2" t="n">
-        <v>-16</v>
-      </c>
-      <c r="J17" s="3" t="inlineStr">
+        <v>-10</v>
+      </c>
+      <c r="J17" s="4" t="inlineStr">
         <is>
           <t>LOW THREAT</t>
         </is>
@@ -1248,7 +1257,7 @@
     <row r="18">
       <c r="A18" s="2" t="inlineStr">
         <is>
-          <t>16-FEB-26</t>
+          <t>23-FEB-26</t>
         </is>
       </c>
       <c r="B18" s="2" t="inlineStr">
@@ -1258,28 +1267,28 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>flyadeal F3-911</t>
+          <t>flynas XY-894</t>
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>547</v>
+        <v>569</v>
       </c>
       <c r="E18" s="2" t="n">
-        <v>826</v>
+        <v>686</v>
       </c>
       <c r="F18" s="2" t="n">
-        <v>-279</v>
+        <v>-117</v>
       </c>
       <c r="G18" s="2" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="H18" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I18" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J18" s="3" t="inlineStr">
+        <v>-10</v>
+      </c>
+      <c r="J18" s="4" t="inlineStr">
         <is>
           <t>LOW THREAT</t>
         </is>
@@ -1293,7 +1302,7 @@
     <row r="19">
       <c r="A19" s="2" t="inlineStr">
         <is>
-          <t>16-FEB-26</t>
+          <t>02-MAR-26</t>
         </is>
       </c>
       <c r="B19" s="2" t="inlineStr">
@@ -1307,13 +1316,13 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>563</v>
+        <v>723</v>
       </c>
       <c r="E19" s="2" t="n">
-        <v>826</v>
+        <v>926</v>
       </c>
       <c r="F19" s="2" t="n">
-        <v>-263</v>
+        <v>-203</v>
       </c>
       <c r="G19" s="2" t="n">
         <v>30</v>
@@ -1324,7 +1333,7 @@
       <c r="I19" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="J19" s="3" t="inlineStr">
+      <c r="J19" s="4" t="inlineStr">
         <is>
           <t>LOW THREAT</t>
         </is>
@@ -1338,7 +1347,7 @@
     <row r="20">
       <c r="A20" s="2" t="inlineStr">
         <is>
-          <t>16-FEB-26</t>
+          <t>02-MAR-26</t>
         </is>
       </c>
       <c r="B20" s="2" t="inlineStr">
@@ -1348,17 +1357,17 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>flynas XY-894</t>
+          <t>flynas XY-854</t>
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>599</v>
+        <v>749</v>
       </c>
       <c r="E20" s="2" t="n">
-        <v>826</v>
+        <v>926</v>
       </c>
       <c r="F20" s="2" t="n">
-        <v>-227</v>
+        <v>-177</v>
       </c>
       <c r="G20" s="2" t="n">
         <v>40</v>
@@ -1369,7 +1378,7 @@
       <c r="I20" s="2" t="n">
         <v>-10</v>
       </c>
-      <c r="J20" s="3" t="inlineStr">
+      <c r="J20" s="4" t="inlineStr">
         <is>
           <t>LOW THREAT</t>
         </is>
@@ -1383,7 +1392,7 @@
     <row r="21">
       <c r="A21" s="2" t="inlineStr">
         <is>
-          <t>16-FEB-26</t>
+          <t>02-MAR-26</t>
         </is>
       </c>
       <c r="B21" s="2" t="inlineStr">
@@ -1393,17 +1402,17 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>flynas XY-854</t>
+          <t>flynas XY-894</t>
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>599</v>
+        <v>799</v>
       </c>
       <c r="E21" s="2" t="n">
-        <v>826</v>
+        <v>926</v>
       </c>
       <c r="F21" s="2" t="n">
-        <v>-227</v>
+        <v>-127</v>
       </c>
       <c r="G21" s="2" t="n">
         <v>40</v>
@@ -1414,237 +1423,12 @@
       <c r="I21" s="2" t="n">
         <v>-10</v>
       </c>
-      <c r="J21" s="3" t="inlineStr">
+      <c r="J21" s="4" t="inlineStr">
         <is>
           <t>LOW THREAT</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
-        <is>
-          <t>SAR</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="2" t="inlineStr">
-        <is>
-          <t>16-FEB-26</t>
-        </is>
-      </c>
-      <c r="B22" s="2" t="inlineStr">
-        <is>
-          <t>SM-438</t>
-        </is>
-      </c>
-      <c r="C22" s="2" t="inlineStr">
-        <is>
-          <t>EgyptAir MS-682</t>
-        </is>
-      </c>
-      <c r="D22" s="2" t="n">
-        <v>776</v>
-      </c>
-      <c r="E22" s="2" t="n">
-        <v>826</v>
-      </c>
-      <c r="F22" s="2" t="n">
-        <v>-50</v>
-      </c>
-      <c r="G22" s="2" t="n">
-        <v>46</v>
-      </c>
-      <c r="H22" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="I22" s="2" t="n">
-        <v>-16</v>
-      </c>
-      <c r="J22" s="3" t="inlineStr">
-        <is>
-          <t>LOW THREAT</t>
-        </is>
-      </c>
-      <c r="K22" s="2" t="inlineStr">
-        <is>
-          <t>SAR</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="2" t="inlineStr">
-        <is>
-          <t>20-FEB-26</t>
-        </is>
-      </c>
-      <c r="B23" s="2" t="inlineStr">
-        <is>
-          <t>SM-438</t>
-        </is>
-      </c>
-      <c r="C23" s="2" t="inlineStr">
-        <is>
-          <t>flynas XY-894</t>
-        </is>
-      </c>
-      <c r="D23" s="2" t="n">
-        <v>569</v>
-      </c>
-      <c r="E23" s="2" t="n">
-        <v>686</v>
-      </c>
-      <c r="F23" s="2" t="n">
-        <v>-117</v>
-      </c>
-      <c r="G23" s="2" t="n">
-        <v>40</v>
-      </c>
-      <c r="H23" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="I23" s="2" t="n">
-        <v>-10</v>
-      </c>
-      <c r="J23" s="3" t="inlineStr">
-        <is>
-          <t>LOW THREAT</t>
-        </is>
-      </c>
-      <c r="K23" s="2" t="inlineStr">
-        <is>
-          <t>SAR</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="2" t="inlineStr">
-        <is>
-          <t>23-FEB-26</t>
-        </is>
-      </c>
-      <c r="B24" s="2" t="inlineStr">
-        <is>
-          <t>SM-438</t>
-        </is>
-      </c>
-      <c r="C24" s="2" t="inlineStr">
-        <is>
-          <t>Nile Air NP-232</t>
-        </is>
-      </c>
-      <c r="D24" s="2" t="n">
-        <v>418</v>
-      </c>
-      <c r="E24" s="2" t="n">
-        <v>686</v>
-      </c>
-      <c r="F24" s="2" t="n">
-        <v>-268</v>
-      </c>
-      <c r="G24" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="H24" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="I24" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J24" s="3" t="inlineStr">
-        <is>
-          <t>LOW THREAT</t>
-        </is>
-      </c>
-      <c r="K24" s="2" t="inlineStr">
-        <is>
-          <t>SAR</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="2" t="inlineStr">
-        <is>
-          <t>23-FEB-26</t>
-        </is>
-      </c>
-      <c r="B25" s="2" t="inlineStr">
-        <is>
-          <t>SM-438</t>
-        </is>
-      </c>
-      <c r="C25" s="2" t="inlineStr">
-        <is>
-          <t>flynas XY-894</t>
-        </is>
-      </c>
-      <c r="D25" s="2" t="n">
-        <v>529</v>
-      </c>
-      <c r="E25" s="2" t="n">
-        <v>686</v>
-      </c>
-      <c r="F25" s="2" t="n">
-        <v>-157</v>
-      </c>
-      <c r="G25" s="2" t="n">
-        <v>40</v>
-      </c>
-      <c r="H25" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="I25" s="2" t="n">
-        <v>-10</v>
-      </c>
-      <c r="J25" s="3" t="inlineStr">
-        <is>
-          <t>LOW THREAT</t>
-        </is>
-      </c>
-      <c r="K25" s="2" t="inlineStr">
-        <is>
-          <t>SAR</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="2" t="inlineStr">
-        <is>
-          <t>23-FEB-26</t>
-        </is>
-      </c>
-      <c r="B26" s="2" t="inlineStr">
-        <is>
-          <t>SM-438</t>
-        </is>
-      </c>
-      <c r="C26" s="2" t="inlineStr">
-        <is>
-          <t>flynas XY-854</t>
-        </is>
-      </c>
-      <c r="D26" s="2" t="n">
-        <v>529</v>
-      </c>
-      <c r="E26" s="2" t="n">
-        <v>686</v>
-      </c>
-      <c r="F26" s="2" t="n">
-        <v>-157</v>
-      </c>
-      <c r="G26" s="2" t="n">
-        <v>40</v>
-      </c>
-      <c r="H26" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="I26" s="2" t="n">
-        <v>-10</v>
-      </c>
-      <c r="J26" s="3" t="inlineStr">
-        <is>
-          <t>LOW THREAT</t>
-        </is>
-      </c>
-      <c r="K26" s="2" t="inlineStr">
         <is>
           <t>SAR</t>
         </is>

--- a/excel_routes/route_DMM_ATZ_threats.xlsx
+++ b/excel_routes/route_DMM_ATZ_threats.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CODERED\LAB\Artifacts\outputs\run_generated_030226_at_07.14\reports\excel_routes\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CODERED\LAB\Artifacts\outputs\run_generated_300126_at_05.16\reports\excel_routes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDAACA8A-11DA-4B58-8089-F14AF62D670E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{929F79C3-C4B7-40E2-9F63-D21AAA9224D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="28">
   <si>
     <t>Date</t>
   </si>
@@ -60,61 +60,55 @@
     <t>Currency</t>
   </si>
   <si>
+    <t>02-FEB-26</t>
+  </si>
+  <si>
+    <t>SM-438</t>
+  </si>
+  <si>
+    <t>Nile Air NP-232</t>
+  </si>
+  <si>
+    <t>MEDIUM THREAT - MONITOR</t>
+  </si>
+  <si>
+    <t>SAR</t>
+  </si>
+  <si>
+    <t>EgyptAir MS-684</t>
+  </si>
+  <si>
+    <t>LOW THREAT</t>
+  </si>
+  <si>
     <t>06-FEB-26</t>
   </si>
   <si>
-    <t>SM-438</t>
-  </si>
-  <si>
-    <t>Nile Air NP-232</t>
-  </si>
-  <si>
-    <t>MEDIUM THREAT - MONITOR</t>
-  </si>
-  <si>
-    <t>SAR</t>
+    <t>flynas XY-894</t>
   </si>
   <si>
     <t>13-FEB-26</t>
   </si>
   <si>
+    <t>16-FEB-26</t>
+  </si>
+  <si>
     <t>flyadeal F3-911</t>
   </si>
   <si>
-    <t>LOW THREAT</t>
-  </si>
-  <si>
-    <t>flynas XY-894</t>
-  </si>
-  <si>
     <t>EgyptAir MS-688</t>
   </si>
   <si>
-    <t>16-FEB-26</t>
-  </si>
-  <si>
     <t>flynas XY-854</t>
   </si>
   <si>
-    <t>EgyptAir MS-684</t>
-  </si>
-  <si>
-    <t>EgyptAir MS-682</t>
+    <t>20-FEB-26</t>
   </si>
   <si>
     <t>23-FEB-26</t>
   </si>
   <si>
-    <t>27-FEB-26</t>
-  </si>
-  <si>
-    <t>Nesma Airlines NE-151</t>
-  </si>
-  <si>
     <t>02-MAR-26</t>
-  </si>
-  <si>
-    <t>Nesma Airlines NE-153</t>
   </si>
 </sst>
 </file>
@@ -511,7 +505,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:K22"/>
+  <dimension ref="A1:K21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -575,13 +569,13 @@
         <v>13</v>
       </c>
       <c r="D2" s="2">
-        <v>723</v>
+        <v>418</v>
       </c>
       <c r="E2" s="2">
-        <v>1126</v>
+        <v>915</v>
       </c>
       <c r="F2" s="2">
-        <v>-403</v>
+        <v>-497</v>
       </c>
       <c r="G2" s="2">
         <v>30</v>
@@ -601,34 +595,34 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>17</v>
-      </c>
       <c r="D3" s="2">
-        <v>549</v>
+        <v>944</v>
       </c>
       <c r="E3" s="2">
-        <v>1026</v>
+        <v>915</v>
       </c>
       <c r="F3" s="2">
-        <v>-477</v>
+        <v>29</v>
       </c>
       <c r="G3" s="2">
-        <v>15</v>
+        <v>46</v>
       </c>
       <c r="H3" s="2">
         <v>30</v>
       </c>
       <c r="I3" s="2">
-        <v>15</v>
+        <v>-16</v>
       </c>
       <c r="J3" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K3" s="2" t="s">
         <v>15</v>
@@ -636,7 +630,7 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>12</v>
@@ -645,25 +639,25 @@
         <v>19</v>
       </c>
       <c r="D4" s="2">
-        <v>659</v>
+        <v>849</v>
       </c>
       <c r="E4" s="2">
-        <v>1026</v>
+        <v>915</v>
       </c>
       <c r="F4" s="2">
-        <v>-367</v>
+        <v>-66</v>
       </c>
       <c r="G4" s="2">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="H4" s="2">
         <v>30</v>
       </c>
       <c r="I4" s="2">
-        <v>10</v>
+        <v>-10</v>
       </c>
       <c r="J4" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K4" s="2" t="s">
         <v>15</v>
@@ -671,34 +665,34 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="D5" s="2">
-        <v>679</v>
+        <v>669</v>
       </c>
       <c r="E5" s="2">
-        <v>1026</v>
+        <v>915</v>
       </c>
       <c r="F5" s="2">
-        <v>-347</v>
+        <v>-246</v>
       </c>
       <c r="G5" s="2">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="H5" s="2">
         <v>30</v>
       </c>
       <c r="I5" s="2">
-        <v>0</v>
+        <v>-10</v>
       </c>
       <c r="J5" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K5" s="2" t="s">
         <v>15</v>
@@ -706,34 +700,34 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="D6" s="2">
-        <v>1040</v>
+        <v>679</v>
       </c>
       <c r="E6" s="2">
-        <v>1026</v>
+        <v>915</v>
       </c>
       <c r="F6" s="2">
-        <v>14</v>
+        <v>-236</v>
       </c>
       <c r="G6" s="2">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="H6" s="2">
         <v>30</v>
       </c>
       <c r="I6" s="2">
-        <v>-16</v>
+        <v>0</v>
       </c>
       <c r="J6" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K6" s="2" t="s">
         <v>15</v>
@@ -741,34 +735,34 @@
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D7" s="2">
-        <v>469</v>
+        <v>784</v>
       </c>
       <c r="E7" s="2">
-        <v>926</v>
+        <v>915</v>
       </c>
       <c r="F7" s="2">
-        <v>-457</v>
+        <v>-131</v>
       </c>
       <c r="G7" s="2">
-        <v>15</v>
+        <v>46</v>
       </c>
       <c r="H7" s="2">
         <v>30</v>
       </c>
       <c r="I7" s="2">
-        <v>15</v>
+        <v>-16</v>
       </c>
       <c r="J7" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K7" s="2" t="s">
         <v>15</v>
@@ -782,28 +776,28 @@
         <v>12</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="D8" s="2">
-        <v>519</v>
+        <v>563</v>
       </c>
       <c r="E8" s="2">
-        <v>926</v>
+        <v>826</v>
       </c>
       <c r="F8" s="2">
-        <v>-407</v>
+        <v>-263</v>
       </c>
       <c r="G8" s="2">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="H8" s="2">
         <v>30</v>
       </c>
       <c r="I8" s="2">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="J8" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K8" s="2" t="s">
         <v>15</v>
@@ -817,28 +811,28 @@
         <v>12</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D9" s="2">
-        <v>559</v>
+        <v>607</v>
       </c>
       <c r="E9" s="2">
-        <v>926</v>
+        <v>826</v>
       </c>
       <c r="F9" s="2">
-        <v>-367</v>
+        <v>-219</v>
       </c>
       <c r="G9" s="2">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="H9" s="2">
         <v>30</v>
       </c>
       <c r="I9" s="2">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="J9" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K9" s="2" t="s">
         <v>15</v>
@@ -852,28 +846,28 @@
         <v>12</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="D10" s="2">
-        <v>563</v>
+        <v>656</v>
       </c>
       <c r="E10" s="2">
-        <v>926</v>
+        <v>826</v>
       </c>
       <c r="F10" s="2">
-        <v>-363</v>
+        <v>-170</v>
       </c>
       <c r="G10" s="2">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="H10" s="2">
         <v>30</v>
       </c>
       <c r="I10" s="2">
-        <v>0</v>
-      </c>
-      <c r="J10" s="4" t="s">
-        <v>18</v>
+        <v>-16</v>
+      </c>
+      <c r="J10" s="3" t="s">
+        <v>14</v>
       </c>
       <c r="K10" s="2" t="s">
         <v>15</v>
@@ -887,28 +881,28 @@
         <v>12</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D11" s="2">
-        <v>784</v>
+        <v>669</v>
       </c>
       <c r="E11" s="2">
-        <v>926</v>
+        <v>826</v>
       </c>
       <c r="F11" s="2">
-        <v>-142</v>
+        <v>-157</v>
       </c>
       <c r="G11" s="2">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="H11" s="2">
         <v>30</v>
       </c>
       <c r="I11" s="2">
-        <v>-16</v>
+        <v>-10</v>
       </c>
       <c r="J11" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K11" s="2" t="s">
         <v>15</v>
@@ -922,28 +916,28 @@
         <v>12</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D12" s="2">
-        <v>944</v>
+        <v>709</v>
       </c>
       <c r="E12" s="2">
-        <v>926</v>
+        <v>826</v>
       </c>
       <c r="F12" s="2">
-        <v>18</v>
+        <v>-117</v>
       </c>
       <c r="G12" s="2">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="H12" s="2">
         <v>30</v>
       </c>
       <c r="I12" s="2">
-        <v>-16</v>
+        <v>-10</v>
       </c>
       <c r="J12" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K12" s="2" t="s">
         <v>15</v>
@@ -951,34 +945,34 @@
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D13" s="2">
-        <v>944</v>
+        <v>477</v>
       </c>
       <c r="E13" s="2">
-        <v>926</v>
+        <v>686</v>
       </c>
       <c r="F13" s="2">
-        <v>18</v>
+        <v>-209</v>
       </c>
       <c r="G13" s="2">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="H13" s="2">
         <v>30</v>
       </c>
       <c r="I13" s="2">
-        <v>-16</v>
+        <v>0</v>
       </c>
       <c r="J13" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K13" s="2" t="s">
         <v>15</v>
@@ -992,28 +986,28 @@
         <v>12</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D14" s="2">
-        <v>379</v>
+        <v>629</v>
       </c>
       <c r="E14" s="2">
-        <v>741</v>
+        <v>686</v>
       </c>
       <c r="F14" s="2">
-        <v>-362</v>
+        <v>-57</v>
       </c>
       <c r="G14" s="2">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="H14" s="2">
         <v>30</v>
       </c>
       <c r="I14" s="2">
-        <v>10</v>
+        <v>-10</v>
       </c>
       <c r="J14" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K14" s="2" t="s">
         <v>15</v>
@@ -1027,28 +1021,28 @@
         <v>12</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="D15" s="2">
-        <v>418</v>
+        <v>656</v>
       </c>
       <c r="E15" s="2">
-        <v>741</v>
+        <v>686</v>
       </c>
       <c r="F15" s="2">
-        <v>-323</v>
+        <v>-30</v>
       </c>
       <c r="G15" s="2">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="H15" s="2">
         <v>30</v>
       </c>
       <c r="I15" s="2">
-        <v>0</v>
+        <v>-16</v>
       </c>
       <c r="J15" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K15" s="2" t="s">
         <v>15</v>
@@ -1062,16 +1056,16 @@
         <v>12</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="D16" s="2">
-        <v>600</v>
+        <v>418</v>
       </c>
       <c r="E16" s="2">
-        <v>926</v>
+        <v>686</v>
       </c>
       <c r="F16" s="2">
-        <v>-326</v>
+        <v>-268</v>
       </c>
       <c r="G16" s="2">
         <v>30</v>
@@ -1083,7 +1077,7 @@
         <v>0</v>
       </c>
       <c r="J16" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K16" s="2" t="s">
         <v>15</v>
@@ -1097,28 +1091,28 @@
         <v>12</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="D17" s="2">
-        <v>629</v>
+        <v>519</v>
       </c>
       <c r="E17" s="2">
-        <v>926</v>
+        <v>686</v>
       </c>
       <c r="F17" s="2">
-        <v>-297</v>
+        <v>-167</v>
       </c>
       <c r="G17" s="2">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="H17" s="2">
         <v>30</v>
       </c>
       <c r="I17" s="2">
-        <v>0</v>
+        <v>-10</v>
       </c>
       <c r="J17" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K17" s="2" t="s">
         <v>15</v>
@@ -1132,28 +1126,28 @@
         <v>12</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D18" s="2">
-        <v>848</v>
+        <v>569</v>
       </c>
       <c r="E18" s="2">
-        <v>926</v>
+        <v>686</v>
       </c>
       <c r="F18" s="2">
-        <v>-78</v>
+        <v>-117</v>
       </c>
       <c r="G18" s="2">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="H18" s="2">
         <v>30</v>
       </c>
       <c r="I18" s="2">
-        <v>-16</v>
+        <v>-10</v>
       </c>
       <c r="J18" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K18" s="2" t="s">
         <v>15</v>
@@ -1161,34 +1155,34 @@
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="D19" s="2">
-        <v>944</v>
+        <v>723</v>
       </c>
       <c r="E19" s="2">
         <v>926</v>
       </c>
       <c r="F19" s="2">
-        <v>18</v>
+        <v>-203</v>
       </c>
       <c r="G19" s="2">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="H19" s="2">
         <v>30</v>
       </c>
       <c r="I19" s="2">
-        <v>-16</v>
+        <v>0</v>
       </c>
       <c r="J19" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K19" s="2" t="s">
         <v>15</v>
@@ -1196,7 +1190,7 @@
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>12</v>
@@ -1205,25 +1199,25 @@
         <v>24</v>
       </c>
       <c r="D20" s="2">
-        <v>952</v>
+        <v>749</v>
       </c>
       <c r="E20" s="2">
         <v>926</v>
       </c>
       <c r="F20" s="2">
-        <v>26</v>
+        <v>-177</v>
       </c>
       <c r="G20" s="2">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="H20" s="2">
         <v>30</v>
       </c>
       <c r="I20" s="2">
-        <v>-16</v>
+        <v>-10</v>
       </c>
       <c r="J20" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K20" s="2" t="s">
         <v>15</v>
@@ -1231,71 +1225,36 @@
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="D21" s="2">
-        <v>670</v>
+        <v>799</v>
       </c>
       <c r="E21" s="2">
         <v>926</v>
       </c>
       <c r="F21" s="2">
-        <v>-256</v>
+        <v>-127</v>
       </c>
       <c r="G21" s="2">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="H21" s="2">
         <v>30</v>
       </c>
       <c r="I21" s="2">
-        <v>0</v>
+        <v>-10</v>
       </c>
       <c r="J21" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K21" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A22" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D22" s="2">
-        <v>723</v>
-      </c>
-      <c r="E22" s="2">
-        <v>926</v>
-      </c>
-      <c r="F22" s="2">
-        <v>-203</v>
-      </c>
-      <c r="G22" s="2">
-        <v>30</v>
-      </c>
-      <c r="H22" s="2">
-        <v>30</v>
-      </c>
-      <c r="I22" s="2">
-        <v>0</v>
-      </c>
-      <c r="J22" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="K22" s="2" t="s">
         <v>15</v>
       </c>
     </row>

--- a/excel_routes/route_DMM_ATZ_threats.xlsx
+++ b/excel_routes/route_DMM_ATZ_threats.xlsx
@@ -33,7 +33,7 @@
       <b val="1"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill/>
     </fill>
@@ -44,12 +44,6 @@
       <patternFill patternType="solid">
         <fgColor rgb="003498DB"/>
         <bgColor rgb="003498DB"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00FFF3CD"/>
-        <bgColor rgb="00FFF3CD"/>
       </patternFill>
     </fill>
     <fill>
@@ -77,7 +71,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -86,9 +80,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -456,7 +447,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K12"/>
+  <dimension ref="A1:K3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -473,7 +464,7 @@
     <col width="13" customWidth="1" min="7" max="7"/>
     <col width="13" customWidth="1" min="8" max="8"/>
     <col width="19" customWidth="1" min="9" max="9"/>
-    <col width="25" customWidth="1" min="10" max="10"/>
+    <col width="12" customWidth="1" min="10" max="10"/>
     <col width="10" customWidth="1" min="11" max="11"/>
   </cols>
   <sheetData>
@@ -537,7 +528,7 @@
     <row r="2">
       <c r="A2" s="2" t="inlineStr">
         <is>
-          <t>23-FEB-26</t>
+          <t>06-MAR-26</t>
         </is>
       </c>
       <c r="B2" s="2" t="inlineStr">
@@ -547,17 +538,17 @@
       </c>
       <c r="C2" s="2" t="inlineStr">
         <is>
-          <t>Nile Air NP-232</t>
+          <t>Nile Air NP-234</t>
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>723</v>
+        <v>1023</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>1126</v>
+        <v>1226</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>-403</v>
+        <v>-203</v>
       </c>
       <c r="G2" s="2" t="n">
         <v>30</v>
@@ -570,7 +561,7 @@
       </c>
       <c r="J2" s="3" t="inlineStr">
         <is>
-          <t>MEDIUM THREAT - MONITOR</t>
+          <t>LOW THREAT</t>
         </is>
       </c>
       <c r="K2" s="2" t="inlineStr">
@@ -582,7 +573,7 @@
     <row r="3">
       <c r="A3" s="2" t="inlineStr">
         <is>
-          <t>23-FEB-26</t>
+          <t>09-MAR-26</t>
         </is>
       </c>
       <c r="B3" s="2" t="inlineStr">
@@ -592,438 +583,33 @@
       </c>
       <c r="C3" s="2" t="inlineStr">
         <is>
-          <t>flynas XY-894</t>
+          <t>Nile Air NP-132</t>
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>969</v>
+        <v>914</v>
       </c>
       <c r="E3" s="2" t="n">
-        <v>1126</v>
+        <v>1226</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>-157</v>
+        <v>-312</v>
       </c>
       <c r="G3" s="2" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="H3" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I3" s="2" t="n">
-        <v>-10</v>
-      </c>
-      <c r="J3" s="4" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="J3" s="3" t="inlineStr">
         <is>
           <t>LOW THREAT</t>
         </is>
       </c>
       <c r="K3" s="2" t="inlineStr">
-        <is>
-          <t>SAR</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="inlineStr">
-        <is>
-          <t>23-FEB-26</t>
-        </is>
-      </c>
-      <c r="B4" s="2" t="inlineStr">
-        <is>
-          <t>SM-438</t>
-        </is>
-      </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>flynas XY-854</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="n">
-        <v>969</v>
-      </c>
-      <c r="E4" s="2" t="n">
-        <v>1126</v>
-      </c>
-      <c r="F4" s="2" t="n">
-        <v>-157</v>
-      </c>
-      <c r="G4" s="2" t="n">
-        <v>40</v>
-      </c>
-      <c r="H4" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="I4" s="2" t="n">
-        <v>-10</v>
-      </c>
-      <c r="J4" s="4" t="inlineStr">
-        <is>
-          <t>LOW THREAT</t>
-        </is>
-      </c>
-      <c r="K4" s="2" t="inlineStr">
-        <is>
-          <t>SAR</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="inlineStr">
-        <is>
-          <t>23-FEB-26</t>
-        </is>
-      </c>
-      <c r="B5" s="2" t="inlineStr">
-        <is>
-          <t>SM-438</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>EgyptAir MS-684</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="n">
-        <v>1020</v>
-      </c>
-      <c r="E5" s="2" t="n">
-        <v>1126</v>
-      </c>
-      <c r="F5" s="2" t="n">
-        <v>-106</v>
-      </c>
-      <c r="G5" s="2" t="n">
-        <v>46</v>
-      </c>
-      <c r="H5" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="I5" s="2" t="n">
-        <v>-16</v>
-      </c>
-      <c r="J5" s="4" t="inlineStr">
-        <is>
-          <t>LOW THREAT</t>
-        </is>
-      </c>
-      <c r="K5" s="2" t="inlineStr">
-        <is>
-          <t>SAR</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="inlineStr">
-        <is>
-          <t>02-MAR-26</t>
-        </is>
-      </c>
-      <c r="B6" s="2" t="inlineStr">
-        <is>
-          <t>SM-438</t>
-        </is>
-      </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>EgyptAir MS-688</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="n">
-        <v>948</v>
-      </c>
-      <c r="E6" s="2" t="n">
-        <v>926</v>
-      </c>
-      <c r="F6" s="2" t="n">
-        <v>22</v>
-      </c>
-      <c r="G6" s="2" t="n">
-        <v>46</v>
-      </c>
-      <c r="H6" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="I6" s="2" t="n">
-        <v>-16</v>
-      </c>
-      <c r="J6" s="4" t="inlineStr">
-        <is>
-          <t>LOW THREAT</t>
-        </is>
-      </c>
-      <c r="K6" s="2" t="inlineStr">
-        <is>
-          <t>SAR</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="inlineStr">
-        <is>
-          <t>02-MAR-26</t>
-        </is>
-      </c>
-      <c r="B7" s="2" t="inlineStr">
-        <is>
-          <t>SM-438</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>EgyptAir MS-682</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="n">
-        <v>948</v>
-      </c>
-      <c r="E7" s="2" t="n">
-        <v>926</v>
-      </c>
-      <c r="F7" s="2" t="n">
-        <v>22</v>
-      </c>
-      <c r="G7" s="2" t="n">
-        <v>46</v>
-      </c>
-      <c r="H7" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="I7" s="2" t="n">
-        <v>-16</v>
-      </c>
-      <c r="J7" s="4" t="inlineStr">
-        <is>
-          <t>LOW THREAT</t>
-        </is>
-      </c>
-      <c r="K7" s="2" t="inlineStr">
-        <is>
-          <t>SAR</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="inlineStr">
-        <is>
-          <t>02-MAR-26</t>
-        </is>
-      </c>
-      <c r="B8" s="2" t="inlineStr">
-        <is>
-          <t>SM-438</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>EgyptAir MS-684</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="n">
-        <v>948</v>
-      </c>
-      <c r="E8" s="2" t="n">
-        <v>926</v>
-      </c>
-      <c r="F8" s="2" t="n">
-        <v>22</v>
-      </c>
-      <c r="G8" s="2" t="n">
-        <v>46</v>
-      </c>
-      <c r="H8" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="I8" s="2" t="n">
-        <v>-16</v>
-      </c>
-      <c r="J8" s="4" t="inlineStr">
-        <is>
-          <t>LOW THREAT</t>
-        </is>
-      </c>
-      <c r="K8" s="2" t="inlineStr">
-        <is>
-          <t>SAR</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="inlineStr">
-        <is>
-          <t>06-MAR-26</t>
-        </is>
-      </c>
-      <c r="B9" s="2" t="inlineStr">
-        <is>
-          <t>SM-438</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>EgyptAir MS-684</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="n">
-        <v>1020</v>
-      </c>
-      <c r="E9" s="2" t="n">
-        <v>1026</v>
-      </c>
-      <c r="F9" s="2" t="n">
-        <v>-6</v>
-      </c>
-      <c r="G9" s="2" t="n">
-        <v>46</v>
-      </c>
-      <c r="H9" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="I9" s="2" t="n">
-        <v>-16</v>
-      </c>
-      <c r="J9" s="4" t="inlineStr">
-        <is>
-          <t>LOW THREAT</t>
-        </is>
-      </c>
-      <c r="K9" s="2" t="inlineStr">
-        <is>
-          <t>SAR</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="inlineStr">
-        <is>
-          <t>09-MAR-26</t>
-        </is>
-      </c>
-      <c r="B10" s="2" t="inlineStr">
-        <is>
-          <t>SM-438</t>
-        </is>
-      </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>EgyptAir MS-682</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="n">
-        <v>948</v>
-      </c>
-      <c r="E10" s="2" t="n">
-        <v>1226</v>
-      </c>
-      <c r="F10" s="2" t="n">
-        <v>-278</v>
-      </c>
-      <c r="G10" s="2" t="n">
-        <v>46</v>
-      </c>
-      <c r="H10" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="I10" s="2" t="n">
-        <v>-16</v>
-      </c>
-      <c r="J10" s="3" t="inlineStr">
-        <is>
-          <t>MEDIUM THREAT - MONITOR</t>
-        </is>
-      </c>
-      <c r="K10" s="2" t="inlineStr">
-        <is>
-          <t>SAR</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="inlineStr">
-        <is>
-          <t>09-MAR-26</t>
-        </is>
-      </c>
-      <c r="B11" s="2" t="inlineStr">
-        <is>
-          <t>SM-438</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>EgyptAir MS-684</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="n">
-        <v>948</v>
-      </c>
-      <c r="E11" s="2" t="n">
-        <v>1226</v>
-      </c>
-      <c r="F11" s="2" t="n">
-        <v>-278</v>
-      </c>
-      <c r="G11" s="2" t="n">
-        <v>46</v>
-      </c>
-      <c r="H11" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="I11" s="2" t="n">
-        <v>-16</v>
-      </c>
-      <c r="J11" s="3" t="inlineStr">
-        <is>
-          <t>MEDIUM THREAT - MONITOR</t>
-        </is>
-      </c>
-      <c r="K11" s="2" t="inlineStr">
-        <is>
-          <t>SAR</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="inlineStr">
-        <is>
-          <t>09-MAR-26</t>
-        </is>
-      </c>
-      <c r="B12" s="2" t="inlineStr">
-        <is>
-          <t>SM-438</t>
-        </is>
-      </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>EgyptAir MS-688</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="n">
-        <v>1128</v>
-      </c>
-      <c r="E12" s="2" t="n">
-        <v>1226</v>
-      </c>
-      <c r="F12" s="2" t="n">
-        <v>-98</v>
-      </c>
-      <c r="G12" s="2" t="n">
-        <v>46</v>
-      </c>
-      <c r="H12" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="I12" s="2" t="n">
-        <v>-16</v>
-      </c>
-      <c r="J12" s="4" t="inlineStr">
-        <is>
-          <t>LOW THREAT</t>
-        </is>
-      </c>
-      <c r="K12" s="2" t="inlineStr">
         <is>
           <t>SAR</t>
         </is>
